--- a/teaching/traditional_assets/database/data/indonesia/indonesia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.215</v>
+        <v>-0.212</v>
       </c>
       <c r="E2">
-        <v>0.101</v>
+        <v>0.18</v>
       </c>
       <c r="G2">
-        <v>-3.422379826635146</v>
+        <v>3.828823529411765</v>
       </c>
       <c r="H2">
-        <v>-3.422379826635146</v>
+        <v>3.828823529411765</v>
       </c>
       <c r="I2">
-        <v>0.9345941686367217</v>
+        <v>0.8162696868917794</v>
       </c>
       <c r="J2">
-        <v>0.9345941686367217</v>
+        <v>0.7268745927835407</v>
       </c>
       <c r="K2">
-        <v>125.3</v>
+        <v>110.27</v>
       </c>
       <c r="L2">
-        <v>0.987391646966115</v>
+        <v>0.720718954248366</v>
       </c>
       <c r="M2">
-        <v>21.496</v>
+        <v>15.014</v>
       </c>
       <c r="N2">
-        <v>0.03040022627633998</v>
+        <v>0.01671751475336822</v>
       </c>
       <c r="O2">
-        <v>0.1715562649640862</v>
+        <v>0.1361567062664369</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>10.874</v>
       </c>
       <c r="Q2">
-        <v>0.02969876962240136</v>
+        <v>0.0121077830976506</v>
       </c>
       <c r="R2">
-        <v>0.1675977653631285</v>
+        <v>0.09861249659925637</v>
       </c>
       <c r="S2">
-        <v>0.4959999999999987</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="T2">
-        <v>0.0230740602902865</v>
+        <v>0.2757426402024777</v>
       </c>
       <c r="U2">
-        <v>65.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="V2">
-        <v>0.09277329939188232</v>
+        <v>0.07471328359870838</v>
       </c>
       <c r="W2">
-        <v>0.08947443587546415</v>
+        <v>0.9698853020433085</v>
       </c>
       <c r="X2">
-        <v>0.06913682974525763</v>
+        <v>0.05095271576926303</v>
       </c>
       <c r="Y2">
-        <v>0.02033760613020652</v>
+        <v>0.9189325862740454</v>
       </c>
       <c r="Z2">
-        <v>0.07925306020484636</v>
+        <v>0.08591554036338774</v>
       </c>
       <c r="AA2">
-        <v>0.07406944791406445</v>
+        <v>-5.792663987835524</v>
       </c>
       <c r="AB2">
-        <v>0.05922060872700674</v>
+        <v>0.04761096895172758</v>
       </c>
       <c r="AC2">
-        <v>0.01484883918705771</v>
+        <v>-5.840274956787251</v>
       </c>
       <c r="AD2">
-        <v>268.3</v>
+        <v>234.15</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.673689527788807</v>
       </c>
       <c r="AF2">
-        <v>268.3</v>
+        <v>235.8236895277888</v>
       </c>
       <c r="AG2">
-        <v>202.7</v>
+        <v>168.7236895277888</v>
       </c>
       <c r="AH2">
-        <v>0.2750666393274554</v>
+        <v>0.2079713932301699</v>
       </c>
       <c r="AI2">
-        <v>0.1449800064843834</v>
+        <v>0.1271476128003893</v>
       </c>
       <c r="AJ2">
-        <v>0.2227962189492196</v>
+        <v>0.1581551770775464</v>
       </c>
       <c r="AK2">
-        <v>0.1135574229691877</v>
+        <v>0.09438434415263214</v>
       </c>
       <c r="AL2">
-        <v>24</v>
+        <v>15.8</v>
       </c>
       <c r="AM2">
-        <v>24</v>
+        <v>15.025</v>
       </c>
       <c r="AN2">
-        <v>2.262225969645869</v>
+        <v>1.86671875249135</v>
       </c>
       <c r="AO2">
-        <v>4.941666666666666</v>
+        <v>7.910126582278481</v>
       </c>
       <c r="AP2">
-        <v>1.709106239460371</v>
+        <v>1.345119262144146</v>
       </c>
       <c r="AQ2">
-        <v>4.941666666666666</v>
+        <v>8.318136439267887</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,246 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.215</v>
+        <v>-0.212</v>
       </c>
       <c r="E3">
-        <v>0.101</v>
+        <v>0.18</v>
       </c>
       <c r="G3">
-        <v>-3.422379826635146</v>
+        <v>4.273062730627307</v>
       </c>
       <c r="H3">
-        <v>-3.422379826635146</v>
+        <v>4.273062730627307</v>
       </c>
       <c r="I3">
-        <v>0.9345941686367217</v>
+        <v>0.8797047970479706</v>
       </c>
       <c r="J3">
-        <v>0.9345941686367217</v>
+        <v>0.8797047970479706</v>
       </c>
       <c r="K3">
-        <v>125.3</v>
+        <v>105.1</v>
       </c>
       <c r="L3">
-        <v>0.987391646966115</v>
+        <v>0.7756457564575645</v>
       </c>
       <c r="M3">
-        <v>21.496</v>
+        <v>14.14</v>
       </c>
       <c r="N3">
-        <v>0.03040022627633998</v>
+        <v>0.02125356981812716</v>
       </c>
       <c r="O3">
-        <v>0.1715562649640862</v>
+        <v>0.1345385347288297</v>
       </c>
       <c r="P3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>0.02969876962240136</v>
+        <v>0.01503081316699234</v>
       </c>
       <c r="R3">
-        <v>0.1675977653631285</v>
+        <v>0.09514747859181732</v>
       </c>
       <c r="S3">
-        <v>0.4959999999999987</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="T3">
-        <v>0.0230740602902865</v>
+        <v>0.2927864214992928</v>
       </c>
       <c r="U3">
-        <v>65.59999999999999</v>
+        <v>47.2</v>
       </c>
       <c r="V3">
-        <v>0.09277329939188232</v>
+        <v>0.07094543814820382</v>
       </c>
       <c r="W3">
-        <v>0.08947443587546415</v>
+        <v>0.06658219828951537</v>
       </c>
       <c r="X3">
-        <v>0.06913682974525763</v>
+        <v>0.05610132186345815</v>
       </c>
       <c r="Y3">
-        <v>0.02033760613020652</v>
+        <v>0.01048087642605722</v>
       </c>
       <c r="Z3">
-        <v>0.07925306020484636</v>
+        <v>0.07607231080170672</v>
       </c>
       <c r="AA3">
-        <v>0.07406944791406445</v>
+        <v>0.06692117673478554</v>
       </c>
       <c r="AB3">
-        <v>0.05922060872700674</v>
+        <v>0.04950008391969309</v>
       </c>
       <c r="AC3">
-        <v>0.01484883918705771</v>
+        <v>0.01742109281509245</v>
       </c>
       <c r="AD3">
-        <v>268.3</v>
+        <v>232.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>268.3</v>
+        <v>232.6</v>
       </c>
       <c r="AG3">
-        <v>202.7</v>
+        <v>185.4</v>
       </c>
       <c r="AH3">
-        <v>0.2750666393274554</v>
+        <v>0.2590488918587816</v>
       </c>
       <c r="AI3">
-        <v>0.1449800064843834</v>
+        <v>0.1270413457862254</v>
       </c>
       <c r="AJ3">
-        <v>0.2227962189492196</v>
+        <v>0.2179381685670624</v>
       </c>
       <c r="AK3">
-        <v>0.1135574229691877</v>
+        <v>0.103941245725178</v>
       </c>
       <c r="AL3">
-        <v>24</v>
+        <v>15.8</v>
       </c>
       <c r="AM3">
-        <v>24</v>
+        <v>15.8</v>
       </c>
       <c r="AN3">
-        <v>2.262225969645869</v>
+        <v>1.949706621961442</v>
       </c>
       <c r="AO3">
-        <v>4.941666666666666</v>
+        <v>7.544303797468355</v>
       </c>
       <c r="AP3">
-        <v>1.709106239460371</v>
+        <v>1.55406538139145</v>
       </c>
       <c r="AQ3">
-        <v>4.941666666666666</v>
+        <v>7.544303797468355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PT Ashmore Asset Management Indonesia Tbk (IDX:AMOR)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0.3891428571428571</v>
+      </c>
+      <c r="H4">
+        <v>0.3891428571428571</v>
+      </c>
+      <c r="I4">
+        <v>0.3251006911109851</v>
+      </c>
+      <c r="J4">
+        <v>0.2538928358072194</v>
+      </c>
+      <c r="K4">
+        <v>5.17</v>
+      </c>
+      <c r="L4">
+        <v>0.2954285714285714</v>
+      </c>
+      <c r="M4">
+        <v>0.874</v>
+      </c>
+      <c r="N4">
+        <v>0.003754295532646048</v>
+      </c>
+      <c r="O4">
+        <v>0.1690522243713733</v>
+      </c>
+      <c r="P4">
+        <v>0.874</v>
+      </c>
+      <c r="Q4">
+        <v>0.003754295532646048</v>
+      </c>
+      <c r="R4">
+        <v>0.1690522243713733</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>19.9</v>
+      </c>
+      <c r="V4">
+        <v>0.08548109965635738</v>
+      </c>
+      <c r="W4">
+        <v>1.873188405797102</v>
+      </c>
+      <c r="X4">
+        <v>0.04580410967506791</v>
+      </c>
+      <c r="Y4">
+        <v>1.827384296122034</v>
+      </c>
+      <c r="Z4">
+        <v>-45.89435978120066</v>
+      </c>
+      <c r="AA4">
+        <v>-11.65224915240583</v>
+      </c>
+      <c r="AB4">
+        <v>0.04572185398376206</v>
+      </c>
+      <c r="AC4">
+        <v>-11.6979710063896</v>
+      </c>
+      <c r="AD4">
+        <v>1.55</v>
+      </c>
+      <c r="AE4">
+        <v>1.673689527788807</v>
+      </c>
+      <c r="AF4">
+        <v>3.223689527788808</v>
+      </c>
+      <c r="AG4">
+        <v>-16.67631047221119</v>
+      </c>
+      <c r="AH4">
+        <v>0.01365833037454174</v>
+      </c>
+      <c r="AI4">
+        <v>0.1353144534572859</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.07716095587969768</v>
+      </c>
+      <c r="AK4">
+        <v>-4.250160557838302</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-0.775</v>
+      </c>
+      <c r="AN4">
+        <v>0.2526899250081513</v>
+      </c>
+      <c r="AP4">
+        <v>-2.718668156539158</v>
+      </c>
+      <c r="AQ4">
+        <v>-7.458064516129032</v>
       </c>
     </row>
   </sheetData>
